--- a/public_html/archivos/2012_BMI.xlsx
+++ b/public_html/archivos/2012_BMI.xlsx
@@ -187,11 +187,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Tipo de sede donde se encuentra el bien.
+          <t xml:space="preserve">Tipo de sede donde se encuentra el bien.
 • MATRIZ
 • EXTENSIÓN
-• CAMPUS
 • CENTRO DE APOYO
 • UNIDAD ACADÉMICA
 </t>
@@ -454,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +593,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -984,12 +988,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1002,11 +1010,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1359,30 +1364,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="26" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="21" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="24" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1414,13 +1419,13 @@
       <c r="X1"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -1467,77 +1472,77 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
